--- a/src/main/webapp/excel/专家签到名单模板.xlsx
+++ b/src/main/webapp/excel/专家签到名单模板.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -627,7 +627,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -705,7 +705,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D1:D1048576">
       <formula1>"物资技术,工程技术,服务技术,物资服务经济,工程经济"</formula1>
     </dataValidation>
     <dataValidation type="textLength" operator="lessThanOrEqual" showInputMessage="1" showErrorMessage="1" error="超过200字符,请重新输入" prompt="请输入200字符以内" sqref="I1:I1048576">
